--- a/Document/images/Product_Data.xlsx
+++ b/Document/images/Product_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6750" tabRatio="629" activeTab="7"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CPU" sheetId="1" r:id="rId4"/>
@@ -32,438 +32,1020 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="144">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="338">
+  <x:si>
+    <x:t>20 x 101.6 x 147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 32G PC4-25600 CL14 TRIDENT Z ROYAL 실버 (8Gx4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GeIL DDR4 32G PC4-21300 CL19 EVO X II AMD Gray RGB (16Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D60G RGB (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TeamGroup T-Force DDR4 16G PC4-28800 CL18 XTREEM 블랙 (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 64G PC4-25600 CL16 TRIDENT Z ROYAL 골드 (16Gx4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 16G PC4-25600 CL16 TRIDENT Z ROYAL 실버 (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180 x 374 x 422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COX A3 엘리시움 풀 아크릴 HALO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COX A5 셀레네 강화유리 (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186 x 392 x 412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.2 x 102 x 147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE Z390 GAMING X 게이밍에디션 제이씨현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO SUITMASTER 340S 레베카 강화유리 스펙트럼 HALO (화이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO SUITMASTER 361G 칼리스토 강화유리 DOUBLING (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014년 12월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 6월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apacer DDR4 8G PC4-21300 CL16 PANTHER RAGE RGB 골드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apacer DDR4 8G PC4-21300 CL16 PANTHER RAGE RGB 블랙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATRIOT DDR4 16G PC4-21300 CL15 VIPER RGB (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이엠텍 HV 지포스 RTX 2070 SUPER BLACK MONSTER OC D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이엠텍 XENON 지포스 RTX 2070 SUPER TURBO JET OC D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 32G PC4-25600 CL14 TRIDENT Z (16Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GeIL DDR4 8G PC4-21300 CL19 SUPER LUCE RGB Sync 화이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZOTAC GAMING 지포스 GTX 1660 SUPER AMP D6 6GB 백플레이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS ROG STRIX 지포스 RTX 2070 SUPER A8G GAMING D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시소닉 FOCUS GOLD GX-750 Full Modular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잘만 EcoMax 500W 83+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 x 435 x 465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219 x 412 x452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215 x 452 x 475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205 x 435 x 502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215 x 398 x 467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASRock X570 Phantom Gaming 4 에즈윈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i3-4세대 4160 (하스웰 리프레시)(병행수입 박스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI 지포스 RTX 2070 SUPER 벤투스 OC D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 DDR3 16G PC3-12800 ECC/REG LP (정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i5-9세대 9600KF (커피레이크-R)(병행수입 박스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAINWARD 지포스 GTX 1660 Ti 고스트 OC D6 6GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 8G PC4-25600 CL16 AEGIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD Green SSD (240GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD Blue 3D SSD (250GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제이씨현 TUNDRA 700W 85+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이구주 M3 화이트 LED &amp; 강화유리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 12TB BarraCuda Pro ST12000DM0007 (SATA3/7200/256M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 8TB Surveillance HDD ST8000VX0002 (SATA3/7200/256M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출시일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 4TB IronWolf ST4000VN008 (SATA3/5900/64M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥스엘리트 MAXWELL GAMING PRO 600W 80PLUS STANDARD 플랫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시소닉 PRIME Ultra Titanium SSR-1000TR Full Modular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 1TB BarraCuda ST1000DM010 (SATA3/7200/64M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스카이디지탈 파워스테이션5 PS5-500EV Standard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COLORFUL iGAME 지포스 RTX 2070 SUPER Vulcan X OC D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 16G PC4-25600 CL16 TRIDENT Z RGB (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZOTAC GAMING 지포스 RTX 2080 Ti AMP EXTREME CORE D6 11GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이엠텍 XENON 지포스 GTX 1660 Ti STORM X Dual OC D6 6GB WHITE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G.SKILL DDR4 16G PC4-25600 CL16 TRIDENT Z NEO (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 160GB BarraCuda7200.7 ST3160021A (EIDE/7200/2M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 80GB BarraCuda 7200.9 ST3802110A (EIDE/7200/2M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO SUITMASTER SETTLER 600W 80PLUS Standard 230V EU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD 4TB BLUE WD40EZRZ (SATA3/5400/64M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD 500GB WD5000AZLX (SATA3/7200/32M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATX (30.5x23.4cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI B450M-A PRO 맥스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI B360M 박격포 티타늄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-ATX (19.0x17.0cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI X470 게이밍 플러스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATX (30.5x22.9cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기 (L x H x W)/mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타무즈 GK300 (120GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135.7mm x 45.4mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타무즈 RX550 (240GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80.5 x 23.5 x 11.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80.15 x 22.15 x 2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIOSTAR B450MH 이엠텍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-ATX (24.4x21.8cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-ATX (23.0x20.1cm)</x:t>
+  </x:si>
   <x:si>
     <x:t>135.7mm x 44.4mm</x:t>
   </x:si>
   <x:si>
-    <x:t>ATX (30.5x23.4cm)</x:t>
+    <x:t>292 x 130 x 59.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151 x 111.15 x 38.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-iTX (17.0x17.0cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133.3mm x 45.9mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100.3 x 70.1 x 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATX (30.4x24.3cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-ATX (24.3x24.3cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATX(30.5 x 24.4cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-ATX (24.4x19.8cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATX (30.5x24.4cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-ATX (24.4x22.9cm)</x:t>
   </x:si>
   <x:si>
     <x:t>ATX (30.5x22.5cm)</x:t>
   </x:si>
   <x:si>
-    <x:t>MSI X470 게이밍 플러스</x:t>
-  </x:si>
-  <x:si>
     <x:t>M-ATX (23.6x20.0cm)</x:t>
   </x:si>
   <x:si>
-    <x:t>ATX (30.4x24.3cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATX (30.5x24.4cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI B450M-A PRO 맥스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-ATX (23.0x20.1cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-ATX (24.4x19.8cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI B360M 박격포 티타늄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-ATX (24.3x24.3cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-ATX (19.0x17.0cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATX(30.5 x 24.4cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-ATX (24.4x21.8cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIOSTAR B450MH 이엠텍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-ATX (24.4x22.9cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATX (30.5x22.9cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-iTX (17.0x17.0cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133.3mm x 45.9mm</x:t>
+    <x:t>26.1 x 101.6 x 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대양케이스 ME NO.1 레인보우 풀 아크릴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COOLMAX ELITE 500W +12V Single Rail 84+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital 8TB Ultrastar DC HC320 HUS728T8TALE6L4 패키지 (SATA3/7200/256M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기(H x W x L)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170 x 150 x 86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2009년 8월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2006년 6월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2010년 11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 7월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2007년 2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012년 09월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 2TB BarraCuda Green ST32000542AS(SATA2/5900/32M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD 6TB BLACK WD6002FZWX (SATA3/7200/128M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 4월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 10월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015년 6월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012년 5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 8월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 05월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 3월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 9월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 8월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 08월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 4월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 9월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015년 5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 9월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 4월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014년 8월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 12월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 3월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 10월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년10월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 7월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 10월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 7월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 6월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019년 04월</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2019년 8월 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 10월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 x 22 x 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 8월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO SUITMASTER 321X 듀얼리티 강화유리 스펙트럼 Dualight (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스카이디지탈 파워스테이션3 PS3-700KO 80PLUS ActivePFC V2.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015년 11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017년 11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시소닉 FOCUS PLUS Platinum SSR-850PX Full Modular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PALIT 지포스 GTX 1660 SUPER GAMINGPRO OC D6 6GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이엠텍 XENON 지포스 GTX1050 Ti STORM X Dual OC D5 4GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COLORFUL 지포스 RTX 2070 SUPER Gaming GT D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤럭시 GALAX 지포스 RTX 2070 SUPER EX Gamer OC D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.1 x 101.85 x 147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218 x 508 x 562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210 x 410 x 463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB 화이트 (8Gx2) 서린</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATRIOT DDR4 8G PC4-25600 CL16 VIPER STEEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤럭시 GALAX GAMER Heat Sink M.2 2280 (240GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADATA XPG SPECTRIX S40G M.2 2280 코잇 (256GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XFX 라데온 RX 5700 XT THICC III ULTRA D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toshiba 2TB P300 HDWD120 (SATA3/7200/64M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toshiba 4TB X300 HDWE140 (SATA3/7200/128M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FSP HYDRO PRO 700W 80PLUS Bronze 230V EU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toshiba 4TB N300 HDWQ140 (SATA3/7200/128M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FSP HYPER K 600W 80PLUS Standard 230V EU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로닉스 Compact TFX 350W 80Plus EU Standard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO SUITMASTER 603G 아우라 강화유리 DOUBLING (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVGA 750 GQ 80PLUS GOLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로닉스 ZERO POWER 400W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잘만 K1 SPECTRUM RGB 강화유리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE AORUS SSD M.2 2280 (1TB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PALIT 지포스 RTX 2070 SUPER JS D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESSENCORE KLEVV NEO N400 (240GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIS 라데온 RX 570 IceQ X2 Turbo D5 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i9-9세대 9900KS (커피레이크-R)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 제온 스케일러블 실버 4208 (캐스케이드레이크)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 제온 스케일러블 브론즈 3104 (스카이레이크)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE X570 AORUS MASTER 피씨디렉트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZOTAC GAMING 지포스 GTX 1650 OC D5 4GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI 지포스 GTX 1660 Ti 벤투스 S OC D6 6GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 제온 스케일러블 골드 6130 (스카이레이크)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i7-9세대 9700K (커피레이크-R)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ECS DURATHON2 H310CH5-M2DV 코잇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIS 라데온 RX 5700 IceQ X2 D6 8GB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS ROG MAXIMUS XI HERO STCOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADATA Ultimate SU800 코잇 (256GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 아이언울프 110 SSD (1.92TB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMD 라이젠 5 1600X (서밋 릿지)(멀티팩)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i7-9세대 9700 (커피레이크-R)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i9-9세대 9900 (커피레이크-R)(벌크)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMD 라이젠 스레드리퍼 2990WX (콜팩스)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMD 라이젠 5 2600 (피나클 릿지) (스페셜팩)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TeamGroup T-Force DDR4 16G PC4-32000 CL18 Night Hawk RGB 화이트 (8Gx2) 서린</x:t>
   </x:si>
   <x:si>
     <x:t>CORSAIR DDR4 32G PC4-25600 CL16 VENGEANCE PRO RGB BLACK INTEL (16Gx2)</x:t>
   </x:si>
   <x:si>
-    <x:t>TeamGroup T-Force DDR4 16G PC4-32000 CL18 Night Hawk RGB 화이트 (8Gx2) 서린</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 32G PC4-25600 CL14 TRIDENT Z (16Gx2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출시일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i3-4세대 4160 (하스웰 리프레시)(병행수입 박스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i5-9세대 9600KF (커피레이크-R)(병행수입 박스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135.7mm x 45.4mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 16G PC4-25600 CL16 TRIDENT Z NEO (8Gx2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2012년 5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 9월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 2월</x:t>
+    <x:t>마이크론 Crucial MX500 대원CTS (250GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크론 Crucial BX500 대원CTS (240GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 970 EVO Plus M.2 2280 (500GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i5-9세대 9600KF (커피레이크-R)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 코어i5-7세대 7500 (카비레이크)(병행수입 박스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADATA XPG DDR4 16G PC4-21300 CL16 SPECTRIX D41 크림슨 레드 (8Gx2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAPPHIRE 라데온 RX 590 NITRO+ AMD 50th Edition OC D5 8GB Dual-X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toshiba 2TB DT01ACA200 (SATA3/7200/64M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로닉스 ASTRO GD 750W 80PLUS GOLD 풀모듈러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO SUITMASTER 310R 아이리스 스펙트럼 (밀키화이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FSP HYDRO G PRO 750W 80PLUS Gold Full Modular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이구주 ELPIS SP-600EL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨러마스터 MWE 600 WHITE 230V V2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨러마스터 Elite V3 230V 500W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO NCORE 아수라 풀 아크릴 (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대양케이스 UNICON 풀 아크릴 RGB (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASRock Z390 PRO4 에즈윈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASRock X570 스틸레전드 에즈윈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS PRIME B365M-A 코잇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASRock B365M PRO4 에즈윈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI MPG Z390 게이밍 프로 카본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 860 EVO (250GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타무즈 MX390 mSATA (256GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toshiba TR200 (240GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS PRIME Z390-P 아이보라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASUS PRIME Z390-A STCOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TeamGroup GX1 (120GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI MPG Z390 게이밍 엣지 AC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIGABYTE SSD (120GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASRock J4105-ITX 에즈윈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 셀러론 G4900 (커피레이크)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 펜티엄 G3260 (하스웰 리프레시)(벌크)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인텔 제온 E3-1230V6 (카비레이크)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASRock A320M-HDV R4.0 에즈윈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AFOX Original SE 벌크 (120GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMD 애슬론 200GE (레이븐 릿지)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMD 라이젠 5 3600 (마티스)(정품)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMD 라이젠 9 3900X (마티스)(멀티팩)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandisk SSD PLUS (120GB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단종시 만료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보증기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310 x 126 x 53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 x 25 x 16.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 x 30 x 3.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220 x 110 x 36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260 x 135 x 43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299 x 130 x 54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257 x 127 x 41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>318 x 147 x 59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235 x 112 x 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 x 70 x 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230 x 114 x 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146.4mm x 52mm</x:t>
   </x:si>
   <x:si>
     <x:t>140mm x 60mm</x:t>
   </x:si>
   <x:si>
-    <x:t>146.4mm x 52mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 05월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GeIL DDR4 8G PC4-21300 CL19 SUPER LUCE RGB Sync 화이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GeIL DDR4 32G PC4-21300 CL19 EVO X II AMD Gray RGB (16Gx2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TeamGroup T-Force DDR4 16G PC4-28800 CL18 XTREEM 블랙 (8Gx2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 64G PC4-25600 CL16 TRIDENT Z ROYAL 골드 (16Gx4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 16G PC4-25600 CL16 TRIDENT Z ROYAL 실버 (8Gx2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apacer DDR4 8G PC4-21300 CL16 PANTHER RAGE RGB 블랙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apacer DDR4 8G PC4-21300 CL16 PANTHER RAGE RGB 골드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADATA XPG DDR4 16G PC4-25600 CL16 SPECTRIX D60G RGB (8Gx2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 32G PC4-25600 CL14 TRIDENT Z ROYAL 실버 (8Gx4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 8G PC4-25600 CL16 AEGIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 08월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G.SKILL DDR4 16G PC4-25600 CL16 TRIDENT Z RGB (8Gx2)</x:t>
+    <x:t>324 x 136 x 59</x:t>
   </x:si>
   <x:si>
     <x:t>MSI Z390-A PRO</x:t>
   </x:si>
   <x:si>
-    <x:t>인텔 코어i7-9세대 9700 (커피레이크-R)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMD 라이젠 5 2600 (피나클 릿지) (스페셜팩)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS ROG MAXIMUS XI HERO STCOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMD 라이젠 5 1600X (서밋 릿지)(멀티팩)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMD 라이젠 스레드리퍼 2990WX (콜팩스)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i9-9세대 9900 (커피레이크-R)(벌크)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i7-9세대 9700K (커피레이크-R)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ECS DURATHON2 H310CH5-M2DV 코잇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017년 4월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017년 5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015년 5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2014년 8월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017년 1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 8월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 8월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017년 9월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 5월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 9월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 3월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 11월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 2월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 7월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 10월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 10월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019년 3월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 4월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년 12월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018년10월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i5-9세대 9600KF (커피레이크-R)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 제온 스케일러블 브론즈 3104 (스카이레이크)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i5-7세대 7500 (카비레이크)(병행수입 박스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 제온 스케일러블 실버 4208 (캐스케이드레이크)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 제온 스케일러블 골드 6130 (스카이레이크)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 코어i9-9세대 9900KS (커피레이크-R)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE X570 AORUS MASTER 피씨디렉트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASRock X570 Phantom Gaming 4 에즈윈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIGABYTE Z390 GAMING X 게이밍에디션 제이씨현</x:t>
+    <x:t xml:space="preserve">140mm x 44mm </x:t>
+  </x:si>
+  <x:si>
+    <x:t>138.3mm x 51.mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140mm x 31.2mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 x 70 x 6.8</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">140mm x 50mm </x:t>
   </x:si>
   <x:si>
+    <x:t>100.2 x 70 x 7</x:t>
+  </x:si>
+  <x:si>
     <x:t>140mm x 44mm</x:t>
   </x:si>
   <x:si>
-    <x:t>PATRIOT DDR4 8G PC4-25600 CL16 VIPER STEEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">140mm x 44mm </x:t>
+    <x:t>235 x 115 x 38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217 x 130 x 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235 x 115 x 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100.5 x 70 x 7</x:t>
   </x:si>
   <x:si>
     <x:t>132mm x 45mm</x:t>
   </x:si>
   <x:si>
-    <x:t>138.3mm x 51.mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 셀러론 G4900 (커피레이크)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 펜티엄 G3260 (하스웰 리프레시)(벌크)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMD 애슬론 200GE (레이븐 릿지)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMD 라이젠 9 3900X (마티스)(멀티팩)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMD 라이젠 5 3600 (마티스)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인텔 제온 E3-1230V6 (카비레이크)(정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASRock A320M-HDV R4.0 에즈윈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단종시 만료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보증기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASRock X570 스틸레전드 에즈윈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASRock B365M PRO4 에즈윈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI MPG Z390 게이밍 엣지 AC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS PRIME Z390-P 아이보라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS PRIME B365M-A 코잇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI MPG Z390 게이밍 프로 카본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASRock Z390 PRO4 에즈윈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASRock J4105-ITX 에즈윈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASUS PRIME Z390-A STCOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 DDR3 16G PC3-12800 ECC/REG LP (정품)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140mm x 31.2mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eamGroup T-Force DDR4 16G PC4-25600 CL16 Delta RGB 화이트 (8Gx2) 서린</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017년 2월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADATA XPG DDR4 16G PC4-21300 CL16 SPECTRIX D41 크림슨 레드 (8Gx2)</x:t>
-  </x:si>
-  <x:si>
     <x:t>146.8mm x 49mm</x:t>
   </x:si>
   <x:si>
-    <x:t>PATRIOT DDR4 16G PC4-21300 CL15 VIPER RGB (8Gx2)</x:t>
+    <x:t>310 x 140 x 57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294 x 129 x 51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290 x 130 x 58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204 x 128 x 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기(L x W x H)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185 x 370 x 415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140 x 150 x 86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD 4TB BLACK WD4005FZBX (SATA3/7200/256M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Western Digital WD 500GB BLUE WD5000AAKX (SATA3/7200/16M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVEN 벨라 풀 아크릴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018년 6월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2003년 4월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVEN FT808 강화유리 블랙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 500GB BarraCuda 7200.12 ST3500418AS (SATA2/7200/16M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seagate 160GB BarraCuda 7200.9 ST3160811AS (SATA2/7200/8M/슬림)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190 x 397 x 413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173 x 370 x 415</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2016년 2월 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 6월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210 x 458 x 450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194 x 431 x 454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194 x 413 x 454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 9월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대양케이스 R11 아크릴 (블랙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.1 x 101.6 x 147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016년 5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015년 9월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABKO NCORE 새턴 풀 아크릴 슬렌더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAVEN GT404 강화유리 블랙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로닉스 사하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대양케이스 ENIX USB 3.0 풀 아크릴 (화이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180 x 370 x 410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208 x 439 x 469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216 x 469 x 494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194 x 436 x 491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크기(W x D x H)/mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2009년 2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로닉스 Master Z1 RGB 강화유리</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -615,7 +1197,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -661,6 +1243,9 @@
     </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
@@ -1465,378 +2050,378 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C2" s="4">
         <x:v>488710</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>922630</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F3" s="2"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>291940</x:v>
       </x:c>
       <x:c r="D4" s="2"/>
       <x:c r="E4" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="9" t="s">
-        <x:v>27</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>254040</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>62500</x:v>
       </x:c>
       <x:c r="D6" s="2"/>
       <x:c r="E6" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F6" s="2"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>462640</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F7" s="2"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>78160</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F8" s="2"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C9" s="2">
         <x:v>744290</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F9" s="2"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>2231740</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F10" s="2"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>153660</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>81110</x:v>
       </x:c>
       <x:c r="D12" s="2"/>
       <x:c r="E12" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>356620</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F13" s="2"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>675400</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F14" s="2"/>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>194980</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F15" s="2"/>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>257390</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F16" s="2"/>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C17" s="2">
         <x:v>604970</x:v>
       </x:c>
       <x:c r="D17" s="2"/>
       <x:c r="E17" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F17" s="2"/>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>221960</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F18" s="2"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C19" s="2">
         <x:v>3031280</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F19" s="2"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C20" s="2">
         <x:v>416890</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F20" s="2"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C21" s="2">
         <x:v>268800</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F21" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="200" verticalDpi="200" copies="1"/>
 </x:worksheet>
 </file>
@@ -1844,15 +2429,136 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet10"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1860,15 +2566,136 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet11"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1876,15 +2703,136 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet12"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1892,15 +2840,136 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet13"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1908,15 +2977,136 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet14"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1942,366 +3132,366 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>3</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>179000</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>101</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>13</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>132</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>99000</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>94</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>14</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>15</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>80790</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>95</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F4" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>129</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>102000</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>94</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>125</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>69000</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>102</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>8</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>110</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>516380</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>130</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>239000</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>5</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>7</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>86000</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>92</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>4</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>131</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>184500</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>1</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>10</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>125000</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>93</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F11" t="s">
-        <x:v>11</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>136</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>279000</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>77</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>452000</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>74</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>167000</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>134</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>169000</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F15" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>128</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>299000</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F16" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>82</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>60500</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>97</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F17" t="s">
-        <x:v>12</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>111</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>219000</x:v>
       </x:c>
       <x:c r="E18" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="F18" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>133</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>309000</x:v>
       </x:c>
       <x:c r="E19" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F19" t="s">
-        <x:v>5</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>135</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>130000</x:v>
       </x:c>
       <x:c r="E20" t="s">
-        <x:v>96</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F20" t="s">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>112</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>204000</x:v>
       </x:c>
       <x:c r="E21" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F21" t="s">
-        <x:v>2</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="200" verticalDpi="200" copies="1"/>
 </x:worksheet>
 </file>
@@ -2311,8 +3501,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    <x:sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -2327,423 +3517,423 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>61</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>52000</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>72</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>113</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>54</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>16000</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>92</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>65</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>189990</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>94</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>139</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>103060</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>102</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>142</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>149990</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>140</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>143</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>104460</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>60</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>53</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>68</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>151070</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>71</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>19</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>44000</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>92</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>138</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>141</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>96780</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>72</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>64</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>600000</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>91</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F11" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>21</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>297700</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>101</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>59</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>259990</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>56</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>118</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>650000</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>57</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>115</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>44000</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>91</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F15" t="s">
-        <x:v>0</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>137</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>44950</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>55</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>62</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>196000</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>92</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F17" t="s">
-        <x:v>58</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>400000</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E18" t="s">
-        <x:v>89</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F18" t="s">
-        <x:v>114</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>63</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>142000</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E19" t="s">
-        <x:v>100</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F19" t="s">
-        <x:v>116</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>51490</x:v>
       </x:c>
       <x:c r="D20" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E20" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F20" t="s">
-        <x:v>117</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>51500</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>126</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E21" t="s">
-        <x:v>98</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F21" t="s">
-        <x:v>117</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="200" verticalDpi="200" copies="1"/>
 </x:worksheet>
 </file>
@@ -2751,15 +3941,389 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H4" activeCellId="0" sqref="H4:H4"/>
+    <x:sheetView topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F22" activeCellId="0" sqref="F22:F22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:cols>
+    <x:col min="2" max="2" width="63.875" customWidth="1"/>
+    <x:col min="3" max="3" width="13.5" customWidth="1"/>
+    <x:col min="4" max="4" width="13.25" customWidth="1"/>
+    <x:col min="5" max="5" width="11.5" customWidth="1"/>
+    <x:col min="6" max="6" width="23.25" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>187800</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>653460</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>357600</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>688410</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>295510</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>683730</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>769500</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>691000</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>697000</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>1596920</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>956130</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>295330</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>658000</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>161120</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>349900</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>282800</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C18">
+        <x:v>571170</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C19">
+        <x:v>426720</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C20">
+        <x:v>188000</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C21">
+        <x:v>370490</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2767,15 +4331,443 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="D22" activeCellId="0" sqref="D22:D22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:cols>
+    <x:col min="2" max="2" width="49.875" customWidth="1"/>
+    <x:col min="3" max="3" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="17.875" customWidth="1"/>
+    <x:col min="5" max="5" width="14.25" customWidth="1"/>
+    <x:col min="6" max="6" width="18.625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>29500</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B3" s="12" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>52350</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>54300</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>48600</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" s="12" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>58740</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>133510</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>41130</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>22980</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>39000</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>35950</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>23950</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>35200</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>51620</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>21800</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>585810</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>29040</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C18">
+        <x:v>373230</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C19">
+        <x:v>37630</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C20">
+        <x:v>76700</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="C21">
+        <x:v>19960</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2783,15 +4775,442 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet6"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F23" activeCellId="0" sqref="F23:F23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:cols>
+    <x:col min="2" max="2" width="75" customWidth="1"/>
+    <x:col min="3" max="3" width="11.625" customWidth="1"/>
+    <x:col min="5" max="5" width="14.625" customWidth="1"/>
+    <x:col min="6" max="6" width="18.375" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>146350</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>339000</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>153590</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>55830</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>116760</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>71910</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>139530</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>52900</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>264360</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>71100</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>49000</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>505000</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>71470</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>76020</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>45090</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="F16" s="10" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>178650</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C18">
+        <x:v>74880</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C19">
+        <x:v>384500</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C20">
+        <x:v>632110</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="C21">
+        <x:v>49000</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2799,15 +5218,442 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet7"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B21" activeCellId="0" sqref="B21:B21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:cols>
+    <x:col min="2" max="2" width="59.625" customWidth="1"/>
+    <x:col min="3" max="3" width="9.00390625" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="14.75" customWidth="1"/>
+    <x:col min="6" max="6" width="17.75" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>111790</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>34600</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>55100</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>43270</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>54150</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>38970</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>30000</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>78000</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>150980</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>58870</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>33800</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>44000</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>111820</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>37990</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>159590</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>146000</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C18">
+        <x:v>37100</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C19">
+        <x:v>49000</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C20">
+        <x:v>48710</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C21">
+        <x:v>214000</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2815,15 +5661,383 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet8"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H18" activeCellId="0" sqref="H18:H18"/>
+    <x:sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G22" activeCellId="0" sqref="G22:G22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:cols>
+    <x:col min="2" max="2" width="61.125" customWidth="1"/>
+    <x:col min="3" max="3" width="16.25" customWidth="1"/>
+    <x:col min="4" max="4" width="16.875" customWidth="1"/>
+    <x:col min="5" max="5" width="11.640625" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="19.375" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>38000</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>36000</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>30900</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>28910</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>79900</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F6" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>75900</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>71500</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F8" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>42750</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>33910</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>33000</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>39000</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>59000</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>124000</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>61000</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>58410</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>33830</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C18">
+        <x:v>26490</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C19">
+        <x:v>36500</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C20">
+        <x:v>33900</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C21">
+        <x:v>34890</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2831,15 +6045,136 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet9"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="11" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="11" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Document/images/Product_Data.xlsx
+++ b/Document/images/Product_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="334">
   <si>
     <t>135.7mm x 44.4mm</t>
   </si>
@@ -465,6 +465,576 @@
   <si>
     <t>2018년10월</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOTAC GAMING 지포스 GTX 1650 OC D5 4GB</t>
+  </si>
+  <si>
+    <t>2019년 4월</t>
+  </si>
+  <si>
+    <t>151 x 111.15 x 38.8</t>
+  </si>
+  <si>
+    <t>COLORFUL 지포스 RTX 2070 SUPER Gaming GT D6 8GB</t>
+  </si>
+  <si>
+    <t>310 x 126 x 53</t>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 GTX 1660 Ti STORM X Dual OC D6 6GB WHITE</t>
+  </si>
+  <si>
+    <t>235 x 112 x 40</t>
+  </si>
+  <si>
+    <t>이엠텍 HV 지포스 RTX 2070 SUPER BLACK MONSTER OC D6 8GB</t>
+  </si>
+  <si>
+    <t>292 x 130 x 59.6</t>
+  </si>
+  <si>
+    <t>ZOTAC GAMING 지포스 GTX 1660 SUPER AMP D6 6GB 백플레이트</t>
+  </si>
+  <si>
+    <t>2019년 11월</t>
+  </si>
+  <si>
+    <t>217 x 130 x 42</t>
+  </si>
+  <si>
+    <t>PALIT 지포스 RTX 2070 SUPER JS D6 8GB</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 지포스 RTX 2070 SUPER A8G GAMING D6 8GB</t>
+  </si>
+  <si>
+    <t>299 x 130 x 54</t>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 RTX 2070 SUPER TURBO JET OC D6 8GB</t>
+  </si>
+  <si>
+    <t>갤럭시 GALAX 지포스 RTX 2070 SUPER EX Gamer OC D6 8GB</t>
+  </si>
+  <si>
+    <t>294 x 129 x 51</t>
+  </si>
+  <si>
+    <t>ZOTAC GAMING 지포스 RTX 2080 Ti AMP EXTREME CORE D6 11GB</t>
+  </si>
+  <si>
+    <t>324 x 136 x 59</t>
+  </si>
+  <si>
+    <t>COLORFUL iGAME 지포스 RTX 2070 SUPER Vulcan X OC D6 8GB</t>
+  </si>
+  <si>
+    <t>318 x 147 x 59</t>
+  </si>
+  <si>
+    <t>PALIT 지포스 GTX 1660 SUPER GAMINGPRO OC D6 6GB</t>
+  </si>
+  <si>
+    <t>235 x 115 x 40</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2070 SUPER 벤투스 OC D6 8GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 8월 </t>
+  </si>
+  <si>
+    <t>257 x 127 x 41</t>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 GTX1050 Ti STORM X Dual OC D5 4GB</t>
+  </si>
+  <si>
+    <t>2016년 10월</t>
+  </si>
+  <si>
+    <t>220 x 110 x 36</t>
+  </si>
+  <si>
+    <t>MSI 지포스 GTX 1660 Ti 벤투스 S OC D6 6GB</t>
+  </si>
+  <si>
+    <t>204 x 128 x 42</t>
+  </si>
+  <si>
+    <t>SAPPHIRE 라데온 RX 590 NITRO+ AMD 50th Edition OC D5 8GB Dual-X</t>
+  </si>
+  <si>
+    <t>260 x 135 x 43</t>
+  </si>
+  <si>
+    <t>XFX 라데온 RX 5700 XT THICC III ULTRA D6 8GB</t>
+  </si>
+  <si>
+    <t>310 x 140 x 57</t>
+  </si>
+  <si>
+    <t>HIS 라데온 RX 5700 IceQ X2 D6 8GB</t>
+  </si>
+  <si>
+    <t>290 x 130 x 58</t>
+  </si>
+  <si>
+    <t>HIS 라데온 RX 570 IceQ X2 Turbo D5 8GB</t>
+  </si>
+  <si>
+    <t>2018년 7월</t>
+  </si>
+  <si>
+    <t>230 x 114 x 40</t>
+  </si>
+  <si>
+    <t>GAINWARD 지포스 GTX 1660 Ti 고스트 OC D6 6GB</t>
+  </si>
+  <si>
+    <t>2019년 6월</t>
+  </si>
+  <si>
+    <t>235 x 115 x 38</t>
+  </si>
+  <si>
+    <t>ESSENCORE KLEVV NEO N400 (240GB)</t>
+  </si>
+  <si>
+    <t>100.2 x 70 x 7</t>
+  </si>
+  <si>
+    <t>ADATA Ultimate SU800 코잇 (256GB)</t>
+  </si>
+  <si>
+    <t>2016년 8월</t>
+  </si>
+  <si>
+    <t>100.5 x 70 x 7</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue 3D SSD (250GB)</t>
+  </si>
+  <si>
+    <t>2017년 10월</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX500 대원CTS (250GB)</t>
+  </si>
+  <si>
+    <t>5년</t>
+  </si>
+  <si>
+    <t>2018년 1월</t>
+  </si>
+  <si>
+    <t>100 x 70 x 7</t>
+  </si>
+  <si>
+    <t>삼성전자 860 EVO (250GB)</t>
+  </si>
+  <si>
+    <t>100 x 70 x 6.8</t>
+  </si>
+  <si>
+    <t>삼성전자 970 EVO Plus M.2 2280 (500GB)</t>
+  </si>
+  <si>
+    <t>80.15 x 22.15 x 2.4</t>
+  </si>
+  <si>
+    <t>Toshiba TR200 (240GB)</t>
+  </si>
+  <si>
+    <t>타무즈 GK300 (120GB)</t>
+  </si>
+  <si>
+    <t>Western Digital WD Green SSD (240GB)</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial BX500 대원CTS (240GB)</t>
+  </si>
+  <si>
+    <t>GIGABYTE SSD (120GB)</t>
+  </si>
+  <si>
+    <t>타무즈 RX550 (240GB)</t>
+  </si>
+  <si>
+    <t>타무즈 MX390 mSATA (256GB)</t>
+  </si>
+  <si>
+    <t>2019년 04월</t>
+  </si>
+  <si>
+    <t>50 x 30 x 3.5</t>
+  </si>
+  <si>
+    <t>TeamGroup GX1 (120GB)</t>
+  </si>
+  <si>
+    <t>Seagate 아이언울프 110 SSD (1.92TB)</t>
+  </si>
+  <si>
+    <t>100.3 x 70.1 x 7</t>
+  </si>
+  <si>
+    <t>Sandisk SSD PLUS (120GB)</t>
+  </si>
+  <si>
+    <t>2015년 6월</t>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS SSD M.2 2280 (1TB)</t>
+  </si>
+  <si>
+    <t>80.5 x 23.5 x 11.4</t>
+  </si>
+  <si>
+    <t>갤럭시 GALAX GAMER Heat Sink M.2 2280 (240GB)</t>
+  </si>
+  <si>
+    <t>80 x 25 x 16.5</t>
+  </si>
+  <si>
+    <t>ADATA XPG SPECTRIX S40G M.2 2280 코잇 (256GB)</t>
+  </si>
+  <si>
+    <t>80 x 22 x 8</t>
+  </si>
+  <si>
+    <t>AFOX Original SE 벌크 (120GB)</t>
+  </si>
+  <si>
+    <t>Toshiba 4TB N300 HDWQ140 (SATA3/7200/128M)</t>
+  </si>
+  <si>
+    <t>26.1 x 101.85 x 147</t>
+  </si>
+  <si>
+    <t>Western Digital 8TB Ultrastar DC HC320 HUS728T8TALE6L4 패키지 (SATA3/7200/256M)</t>
+  </si>
+  <si>
+    <t>26.1 x 101.6 x 147</t>
+  </si>
+  <si>
+    <t>Seagate 4TB IronWolf ST4000VN008 (SATA3/5900/64M)</t>
+  </si>
+  <si>
+    <t>Seagate 1TB BarraCuda ST1000DM010 (SATA3/7200/64M)</t>
+  </si>
+  <si>
+    <t>2016년 9월</t>
+  </si>
+  <si>
+    <t>20.2 x 102 x 147</t>
+  </si>
+  <si>
+    <t>Western Digital WD 4TB BLUE WD40EZRZ (SATA3/5400/64M)</t>
+  </si>
+  <si>
+    <t>2015년 9월</t>
+  </si>
+  <si>
+    <t>Toshiba 2TB P300 HDWD120 (SATA3/7200/64M)</t>
+  </si>
+  <si>
+    <t>Toshiba 4TB X300 HDWE140 (SATA3/7200/128M)</t>
+  </si>
+  <si>
+    <t>Western Digital WD 500GB WD5000AZLX (SATA3/7200/32M)</t>
+  </si>
+  <si>
+    <t>2015년 11월</t>
+  </si>
+  <si>
+    <t>Western Digital WD 4TB BLACK WD4005FZBX (SATA3/7200/256M)</t>
+  </si>
+  <si>
+    <t>Toshiba 2TB DT01ACA200 (SATA3/7200/64M)</t>
+  </si>
+  <si>
+    <t>2012년 09월</t>
+  </si>
+  <si>
+    <t>Western Digital WD 500GB BLUE WD5000AAKX (SATA3/7200/16M)</t>
+  </si>
+  <si>
+    <t>2010년 11월</t>
+  </si>
+  <si>
+    <t>Seagate 8TB Surveillance HDD ST8000VX0002 (SATA3/7200/256M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016년 2월 </t>
+  </si>
+  <si>
+    <t>Seagate 80GB BarraCuda 7200.9 ST3802110A (EIDE/7200/2M)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>2007년 2월</t>
+  </si>
+  <si>
+    <t>Seagate 500GB BarraCuda 7200.12 ST3500418AS (SATA2/7200/16M)</t>
+  </si>
+  <si>
+    <t>2009년 2월</t>
+  </si>
+  <si>
+    <t>20 x 101.6 x 147</t>
+  </si>
+  <si>
+    <t>Seagate 160GB BarraCuda7200.7 ST3160021A (EIDE/7200/2M)</t>
+  </si>
+  <si>
+    <t>2003년 4월</t>
+  </si>
+  <si>
+    <t>26.1 x 101.6 x 14</t>
+  </si>
+  <si>
+    <t>Seagate 2TB BarraCuda Green ST32000542AS(SATA2/5900/32M)</t>
+  </si>
+  <si>
+    <t>2009년 8월</t>
+  </si>
+  <si>
+    <t>Seagate 160GB BarraCuda 7200.9 ST3160811AS (SATA2/7200/8M/슬림)</t>
+  </si>
+  <si>
+    <t>2006년 6월</t>
+  </si>
+  <si>
+    <t>Western Digital WD 6TB BLACK WD6002FZWX (SATA3/7200/128M)</t>
+  </si>
+  <si>
+    <t>2017년 6월</t>
+  </si>
+  <si>
+    <t>Seagate 12TB BarraCuda Pro ST12000DM0007 (SATA3/7200/256M)</t>
+  </si>
+  <si>
+    <t>EVGA 750 GQ 80PLUS GOLD</t>
+  </si>
+  <si>
+    <t>140 x 150 x 86</t>
+  </si>
+  <si>
+    <t>COOLMAX ELITE 500W +12V Single Rail 84+</t>
+  </si>
+  <si>
+    <t>쿨러마스터 MWE 600 WHITE 230V V2</t>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER SETTLER 600W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>7년</t>
+  </si>
+  <si>
+    <t>FSP HYPER K 600W 80PLUS Standard 230V EU</t>
+  </si>
+  <si>
+    <t>2016년 5월</t>
+  </si>
+  <si>
+    <t>아이구주 ELPIS SP-600EL</t>
+  </si>
+  <si>
+    <t>2016년 2월</t>
+  </si>
+  <si>
+    <t>잘만 EcoMax 500W 83+</t>
+  </si>
+  <si>
+    <t>2018년 6월</t>
+  </si>
+  <si>
+    <t>FSP HYDRO PRO 700W 80PLUS Bronze 230V EU</t>
+  </si>
+  <si>
+    <t>시소닉 FOCUS GOLD GX-750 Full Modular</t>
+  </si>
+  <si>
+    <t>10년</t>
+  </si>
+  <si>
+    <t>제이씨현 TUNDRA 700W 85+</t>
+  </si>
+  <si>
+    <t>쿨러마스터 Elite V3 230V 500W</t>
+  </si>
+  <si>
+    <t>맥스엘리트 MAXWELL GAMING PRO 600W 80PLUS STANDARD 플랫</t>
+  </si>
+  <si>
+    <t>마이크로닉스 ASTRO GD 750W 80PLUS GOLD 풀모듈러</t>
+  </si>
+  <si>
+    <t>스카이디지탈 파워스테이션5 PS5-500EV Standard</t>
+  </si>
+  <si>
+    <t>FSP HYDRO G PRO 750W 80PLUS Gold Full Modular</t>
+  </si>
+  <si>
+    <t>시소닉 PRIME Ultra Titanium SSR-1000TR Full Modular</t>
+  </si>
+  <si>
+    <t>12년</t>
+  </si>
+  <si>
+    <t>170 x 150 x 86</t>
+  </si>
+  <si>
+    <t>마이크로닉스 ZERO POWER 400W</t>
+  </si>
+  <si>
+    <t>2016년 6월</t>
+  </si>
+  <si>
+    <t>마이크로닉스 Compact TFX 350W 80Plus EU Standard</t>
+  </si>
+  <si>
+    <t>2016년 1월</t>
+  </si>
+  <si>
+    <t>스카이디지탈 파워스테이션3 PS3-700KO 80PLUS ActivePFC V2.3</t>
+  </si>
+  <si>
+    <t>2014년 12월</t>
+  </si>
+  <si>
+    <t>시소닉 FOCUS PLUS Platinum SSR-850PX Full Modular</t>
+  </si>
+  <si>
+    <t>ABKO NCORE 아수라 풀 아크릴 (블랙)</t>
+  </si>
+  <si>
+    <t>2016년 11월</t>
+  </si>
+  <si>
+    <t>194 x 436 x 491</t>
+  </si>
+  <si>
+    <t>ABKO NCORE 새턴 풀 아크릴 슬렌더</t>
+  </si>
+  <si>
+    <t>194 x 431 x 454</t>
+  </si>
+  <si>
+    <t>마이크로닉스 사하라</t>
+  </si>
+  <si>
+    <t>200 x 435 x 465</t>
+  </si>
+  <si>
+    <t>COX A3 엘리시움 풀 아크릴 HALO</t>
+  </si>
+  <si>
+    <t>186 x 392 x 412</t>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER 321X 듀얼리티 강화유리 스펙트럼 Dualight (블랙)</t>
+  </si>
+  <si>
+    <t>208 x 439 x 469</t>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER 361G 칼리스토 강화유리 DOUBLING (블랙)</t>
+  </si>
+  <si>
+    <t>2017년 11월</t>
+  </si>
+  <si>
+    <t>216 x 469 x 494</t>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER 340S 레베카 강화유리 스펙트럼 HALO (화이트)</t>
+  </si>
+  <si>
+    <t>210 x 410 x 463</t>
+  </si>
+  <si>
+    <t>DAVEN FT808 강화유리 블랙</t>
+  </si>
+  <si>
+    <t>219 x 412 x452</t>
+  </si>
+  <si>
+    <t>대양케이스 UNICON 풀 아크릴 RGB (블랙)</t>
+  </si>
+  <si>
+    <t>185 x 370 x 415</t>
+  </si>
+  <si>
+    <t>대양케이스 ENIX USB 3.0 풀 아크릴 (화이트)</t>
+  </si>
+  <si>
+    <t>2016년 7월</t>
+  </si>
+  <si>
+    <t>205 x 435 x 502</t>
+  </si>
+  <si>
+    <t>DAVEN GT404 강화유리 블랙</t>
+  </si>
+  <si>
+    <t>215 x 452 x 475</t>
+  </si>
+  <si>
+    <t>잘만 K1 SPECTRUM RGB 강화유리</t>
+  </si>
+  <si>
+    <t>210 x 458 x 450</t>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER 603G 아우라 강화유리 DOUBLING (블랙)</t>
+  </si>
+  <si>
+    <t>218 x 508 x 562</t>
+  </si>
+  <si>
+    <t>ABKO SUITMASTER 310R 아이리스 스펙트럼 (밀키화이트)</t>
+  </si>
+  <si>
+    <t>215 x 398 x 467</t>
+  </si>
+  <si>
+    <t>마이크로닉스 Master Z1 RGB 강화유리</t>
+  </si>
+  <si>
+    <t>173 x 370 x 415</t>
+  </si>
+  <si>
+    <t>대양케이스 R11 아크릴 (블랙)</t>
+  </si>
+  <si>
+    <t>190 x 397 x 413</t>
+  </si>
+  <si>
+    <t>DAVEN 벨라 풀 아크릴</t>
+  </si>
+  <si>
+    <t>180 x 374 x 422</t>
+  </si>
+  <si>
+    <t>아이구주 M3 화이트 LED &amp; 강화유리</t>
+  </si>
+  <si>
+    <t>대양케이스 ME NO.1 레인보우 풀 아크릴</t>
+  </si>
+  <si>
+    <t>180 x 370 x 410</t>
+  </si>
+  <si>
+    <t>COX A5 셀레네 강화유리 (블랙)</t>
+  </si>
+  <si>
+    <t>194 x 413 x 454</t>
   </si>
 </sst>
 </file>
@@ -582,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +1191,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -929,7 +1514,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2647,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2307,7 +2892,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2959,7 +3544,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3401,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3436,204 +4021,368 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>187800</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>653460</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4">
+        <v>357600</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>688410</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>295510</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7">
+        <v>683730</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8">
+        <v>769500</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9">
+        <v>691000</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>697000</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>1596920</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>956130</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13">
+        <v>295330</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14">
+        <v>658000</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15">
+        <v>161120</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16">
+        <v>349900</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17">
+        <v>282800</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18">
+        <v>571170</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>426720</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20">
+        <v>188000</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21">
+        <v>370490</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3647,7 +4396,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3681,204 +4430,404 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2">
+        <v>29500</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3">
+        <v>52350</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4">
+        <v>54300</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5">
+        <v>48600</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6">
+        <v>58740</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7">
+        <v>133510</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8">
+        <v>41130</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9">
+        <v>22980</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10">
+        <v>39000</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11">
+        <v>35950</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12">
+        <v>23950</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13">
+        <v>35200</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14">
+        <v>51620</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>21800</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16">
+        <v>585810</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17">
+        <v>29040</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18">
+        <v>373230</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19">
+        <v>37630</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20">
+        <v>76700</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21">
+        <v>19960</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3892,7 +4841,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3926,204 +4875,404 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2">
+        <v>146350</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3">
+        <v>339000</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4">
+        <v>153590</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>55830</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6">
+        <v>116760</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7">
+        <v>71910</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8">
+        <v>139530</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9">
+        <v>52900</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10">
+        <v>264360</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11">
+        <v>71100</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12">
+        <v>49000</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13">
+        <v>505000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14">
+        <v>71470</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15">
+        <v>76020</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16">
+        <v>45090</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17">
+        <v>178650</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18">
+        <v>74880</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <v>384500</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20">
+        <v>632110</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21">
+        <v>49000</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4171,204 +5320,404 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2">
+        <v>111790</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3">
+        <v>34600</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4">
+        <v>55100</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5">
+        <v>43270</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6">
+        <v>54150</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7">
+        <v>38970</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9">
+        <v>78000</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10">
+        <v>150980</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11">
+        <v>58870</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12">
+        <v>33800</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13">
+        <v>44000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14">
+        <v>111820</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15">
+        <v>37990</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16">
+        <v>159590</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17">
+        <v>146000</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18">
+        <v>37100</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19">
+        <v>49000</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20">
+        <v>48710</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21">
+        <v>214000</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>262</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4382,7 +5731,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4416,204 +5765,364 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2">
+        <v>38000</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3">
+        <v>36000</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4">
+        <v>30900</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5">
+        <v>28910</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6">
+        <v>79900</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7">
+        <v>75900</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8">
+        <v>71500</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9">
+        <v>42750</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10">
+        <v>33910</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11">
+        <v>33000</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12">
+        <v>39000</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13">
+        <v>59000</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14">
+        <v>124000</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15">
+        <v>61000</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16">
+        <v>58410</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17">
+        <v>33830</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18">
+        <v>26490</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19">
+        <v>36500</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20">
+        <v>33900</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21">
+        <v>34890</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4627,7 +6136,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/images/Product_Data.xlsx
+++ b/Document/images/Product_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,20 +1192,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1514,7 +1502,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2891,7 +2879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3987,6 +3975,860 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="8">
+        <v>187800</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="8">
+        <v>653460</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="8">
+        <v>357600</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="8">
+        <v>688410</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="8">
+        <v>295510</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="8">
+        <v>683730</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="8">
+        <v>769500</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="8">
+        <v>691000</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="8">
+        <v>697000</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1596920</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="8">
+        <v>956130</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="8">
+        <v>295330</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="8">
+        <v>658000</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="8">
+        <v>161120</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="8">
+        <v>349900</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="8">
+        <v>282800</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="8">
+        <v>571170</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="8">
+        <v>426720</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="8">
+        <v>188000</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="8">
+        <v>370490</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="8">
+        <v>29500</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="8">
+        <v>52350</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="8">
+        <v>54300</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="8">
+        <v>48600</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="8">
+        <v>58740</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="8">
+        <v>133510</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="8">
+        <v>41130</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="8">
+        <v>22980</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="8">
+        <v>39000</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="8">
+        <v>35950</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="8">
+        <v>23950</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="8">
+        <v>35200</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="8">
+        <v>51620</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="8">
+        <v>21800</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="8">
+        <v>585810</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="8">
+        <v>29040</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="8">
+        <v>373230</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="8">
+        <v>37630</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="8">
+        <v>76700</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="8">
+        <v>19960</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -4021,1256 +4863,402 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2">
-        <v>187800</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="8">
+        <v>146350</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="8">
+        <v>339000</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>653460</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="8">
+        <v>153590</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4">
-        <v>357600</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
+      <c r="E4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5">
-        <v>688410</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>152</v>
+      <c r="B5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="8">
+        <v>55830</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6">
-        <v>295510</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
-        <v>155</v>
+      <c r="B6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="8">
+        <v>116760</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7">
-        <v>683730</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>152</v>
+      <c r="B7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="8">
+        <v>71910</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8">
-        <v>769500</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>158</v>
+      <c r="B8" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="8">
+        <v>139530</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9">
-        <v>691000</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>152</v>
+      <c r="B9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="8">
+        <v>52900</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10">
-        <v>697000</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
+      <c r="B10" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="8">
+        <v>264360</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11">
-        <v>1596920</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
-        <v>163</v>
+      <c r="B11" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="8">
+        <v>71100</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12">
-        <v>956130</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>165</v>
+      <c r="B12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="8">
+        <v>49000</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13">
-        <v>295330</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" t="s">
-        <v>167</v>
+      <c r="B13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="8">
+        <v>505000</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14">
-        <v>658000</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
-        <v>170</v>
+      <c r="B14" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="8">
+        <v>71470</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15">
-        <v>161120</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" t="s">
-        <v>173</v>
+      <c r="B15" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="8">
+        <v>76020</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16">
-        <v>349900</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
+      <c r="B16" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="8">
+        <v>45090</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17">
-        <v>282800</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>177</v>
+      <c r="B17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="8">
+        <v>178650</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18">
-        <v>571170</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>179</v>
+      <c r="B18" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="8">
+        <v>74880</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19">
-        <v>426720</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>181</v>
+      <c r="B19" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="8">
+        <v>384500</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20">
-        <v>188000</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" t="s">
-        <v>184</v>
+      <c r="B20" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="8">
+        <v>632110</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21">
-        <v>370490</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2">
-        <v>29500</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3">
-        <v>52350</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4">
-        <v>54300</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5">
-        <v>48600</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6">
-        <v>58740</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7">
-        <v>133510</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8">
-        <v>41130</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9">
-        <v>22980</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10">
-        <v>39000</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11">
-        <v>35950</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12">
-        <v>23950</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13">
-        <v>35200</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14">
-        <v>51620</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15">
-        <v>21800</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16">
-        <v>585810</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17">
-        <v>29040</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18">
-        <v>373230</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19">
-        <v>37630</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20">
-        <v>76700</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21">
-        <v>19960</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2">
-        <v>146350</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3">
-        <v>339000</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4">
-        <v>153590</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5">
-        <v>55830</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="B21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="8">
+        <v>49000</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6">
-        <v>116760</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7">
-        <v>71910</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8">
-        <v>139530</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9">
-        <v>52900</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10">
-        <v>264360</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11">
-        <v>71100</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12">
-        <v>49000</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E21" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13">
-        <v>505000</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14">
-        <v>71470</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15">
-        <v>76020</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16">
-        <v>45090</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17">
-        <v>178650</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18">
-        <v>74880</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19">
-        <v>384500</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20">
-        <v>632110</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21">
-        <v>49000</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5320,402 +5308,402 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>111790</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>34600</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>55100</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>43270</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>54150</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>38970</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>30000</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>78000</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>150980</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>58870</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>33800</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>44000</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>111820</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>37990</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>159590</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>146000</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>37100</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>49000</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>48710</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>214000</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5731,7 +5719,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5765,362 +5753,362 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>38000</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>36000</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>30900</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>28910</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>79900</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>75900</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>71500</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>42750</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>33910</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>33000</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>39000</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>59000</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>124000</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>61000</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>58410</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>33830</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>26490</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>36500</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>33900</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>34890</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>333</v>
       </c>
     </row>
